--- a/medicine/Pharmacie/Scutellaria_baicalensis/Scutellaria_baicalensis.xlsx
+++ b/medicine/Pharmacie/Scutellaria_baicalensis/Scutellaria_baicalensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scutellaria baicalensis, la Scutellaire du Baïkal, est une espèce de plantes vivaces de la famille des Lamiacées et du genre des Scutellaires.
 </t>
@@ -511,11 +523,13 @@
           <t>Utilisations médicinales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La racine séchée est utilisée en herboristerie traditionnelle chinoise sous le nom de 黄芩 (huáng qín)[4] pour combattre la fièvre et les affections des poumons et du foie. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La racine séchée est utilisée en herboristerie traditionnelle chinoise sous le nom de 黄芩 (huáng qín) pour combattre la fièvre et les affections des poumons et du foie. 
 Elle est considérée comme antivirale et antioxydante. 
-Elle détruit in vivo des cellules cancéreuses et, chez la souris, freine la croissance de différents types de tumeurs[5].
+Elle détruit in vivo des cellules cancéreuses et, chez la souris, freine la croissance de différents types de tumeurs.
 </t>
         </is>
       </c>
